--- a/InventorModel/ZAxis/ZAxisBed BOM.xlsx
+++ b/InventorModel/ZAxis/ZAxisBed BOM.xlsx
@@ -31,7 +31,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bearing\BearingLinear\BearingLinearLMU10.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bearing\BearingLinear\BearingLinearLMU10.ipt</t>
         </r>
       </text>
     </comment>
@@ -45,7 +45,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZAxisCarriageRight.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZAxisCarriageRight.ipt</t>
         </r>
       </text>
     </comment>
@@ -59,7 +59,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZAxisCarriageLeft.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZAxisCarriageLeft.ipt</t>
         </r>
       </text>
     </comment>
@@ -73,7 +73,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\HeatBed\Ultibots230x290\UltibotsBed230x290.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\HeatBed\Ultibots230x290\UltibotsBed230x290.iam</t>
         </r>
       </text>
     </comment>
@@ -87,7 +87,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZAxisFrameVertical.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZAxisFrameVertical.ipt</t>
         </r>
       </text>
     </comment>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZBedSupportExtrusion.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZBedSupportExtrusion.ipt</t>
         </r>
       </text>
     </comment>
@@ -115,7 +115,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZBedPlate.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZBedPlate.ipt</t>
         </r>
       </text>
     </comment>
@@ -129,7 +129,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\HeatBed\BedClipUltiBots.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\HeatBed\BedClipUltiBots.ipt</t>
         </r>
       </text>
     </comment>
@@ -143,7 +143,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\HeatBed\BedClipUltiBotsMirrored.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\HeatBed\BedClipUltiBotsMirrored.ipt</t>
         </r>
       </text>
     </comment>
@@ -157,7 +157,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Nuts\Nut3.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Nuts\Nut3.ipt</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZBedSupportLateral.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZBedSupportLateral.ipt</t>
         </r>
       </text>
     </comment>
@@ -185,7 +185,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZBedSupportPlate.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZBedSupportPlate.ipt</t>
         </r>
       </text>
     </comment>
@@ -199,7 +199,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\ZAxis\ZAxisNutMountMetal.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\ZAxis\ZAxisNutMountMetal.ipt</t>
         </r>
       </text>
     </comment>
@@ -213,7 +213,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Nuts\Nut4.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Nuts\Nut4.ipt</t>
         </r>
       </text>
     </comment>
@@ -227,7 +227,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x24.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x24.iam</t>
         </r>
       </text>
     </comment>
@@ -241,7 +241,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\BoltWashers\BoltWasher4\BoltWasher4x10.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher4\BoltWasher4x10.iam</t>
         </r>
       </text>
     </comment>
@@ -255,7 +255,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Bolts\FHS\FHS4\FHS4x12.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Bolts\FHS\FHS4\FHS4x12.ipt</t>
         </r>
       </text>
     </comment>
@@ -269,7 +269,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x16.iam</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\BoltWashers\BoltWasher3\BoltWasher3x16.iam</t>
         </r>
       </text>
     </comment>
@@ -283,7 +283,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\Wahsers\M3Washer.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\Wahsers\M3Washer.ipt</t>
         </r>
       </text>
     </comment>
@@ -297,7 +297,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\HeatBed\BedClipUltiBotsMiddle.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\HeatBed\BedClipUltiBotsMiddle.ipt</t>
         </r>
       </text>
     </comment>
@@ -311,7 +311,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>C:\Users\Jack\ownCloud\Projects\CoreXY\InventorModel\Hardware\ZDrive\ZAcmeNutMTSRR10.ipt</t>
+          <t>C:\Users\Jack\ownCloud\Projects\CrossBot\InventorModel\Hardware\ZDrive\ZACMENut.ipt</t>
         </r>
       </text>
     </comment>
@@ -320,7 +320,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="78">
   <si>
     <t>PART PREVIEW</t>
   </si>
@@ -340,9 +340,6 @@
     <t>TITLE</t>
   </si>
   <si>
-    <t>AUTHOR</t>
-  </si>
-  <si>
     <t>CATEGORY</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>Bearing Linear LMU10</t>
   </si>
   <si>
-    <t>t_clevj</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -385,105 +379,108 @@
     <t>Z Axis Carriage Right</t>
   </si>
   <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>ZAxisCarriageLeft</t>
+  </si>
+  <si>
+    <t>Z Axis Carraige Left</t>
+  </si>
+  <si>
+    <t>UltibotsBed230x290</t>
+  </si>
+  <si>
+    <t>Ultibots Bed 230x290</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Ultibots</t>
+  </si>
+  <si>
+    <t>ZAxisFrameVertical</t>
+  </si>
+  <si>
+    <t>Z Axis Frame Vertical</t>
+  </si>
+  <si>
+    <t>Extrusion</t>
+  </si>
+  <si>
+    <t>80 Long</t>
+  </si>
+  <si>
+    <t>MISUMI</t>
+  </si>
+  <si>
+    <t>http://us.misumi-ec.com/vona2/detail/110302368740/</t>
+  </si>
+  <si>
+    <t>ZBedSupportExtrusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z Bed Support </t>
+  </si>
+  <si>
+    <t>264 long</t>
+  </si>
+  <si>
+    <t>ZBedPlate</t>
+  </si>
+  <si>
+    <t>Bed Support Plate</t>
+  </si>
+  <si>
+    <t>Sheet Metal</t>
+  </si>
+  <si>
+    <t>BedClipUltiBot</t>
+  </si>
+  <si>
+    <t>Bed Clip Ultibots</t>
+  </si>
+  <si>
+    <t>BedClipUltiBotMirrored</t>
+  </si>
+  <si>
+    <t>Bed Clip Ultibots Mirrored</t>
+  </si>
+  <si>
+    <t>M3Nut</t>
+  </si>
+  <si>
+    <t>M3 Nut</t>
+  </si>
+  <si>
+    <t>KNTR3</t>
+  </si>
+  <si>
+    <t>http://us.misumi-ec.com/vona2/detail/110300250540/</t>
+  </si>
+  <si>
+    <t>ZBedSupportLateral</t>
+  </si>
+  <si>
+    <t>Z Bed Support Lateral</t>
+  </si>
+  <si>
+    <t>110 Long</t>
+  </si>
+  <si>
+    <t>ZBedSupportPlate</t>
+  </si>
+  <si>
+    <t>Z Bed Support</t>
+  </si>
+  <si>
     <t>Jack</t>
   </si>
   <si>
-    <t>Print</t>
-  </si>
-  <si>
-    <t>ZAxisCarriageLeft</t>
-  </si>
-  <si>
-    <t>Z Axis Carraige Left</t>
-  </si>
-  <si>
-    <t>UltibotsBed230x290</t>
-  </si>
-  <si>
-    <t>Ultibots Bed 230x290</t>
-  </si>
-  <si>
-    <t>Misc</t>
-  </si>
-  <si>
-    <t>Ultibots</t>
-  </si>
-  <si>
-    <t>ZAxisFrameVertical</t>
-  </si>
-  <si>
-    <t>Z Axis Frame Vertical</t>
-  </si>
-  <si>
-    <t>Cadenas PARTsolutions</t>
-  </si>
-  <si>
-    <t>Extrusion</t>
-  </si>
-  <si>
-    <t>80 Long</t>
-  </si>
-  <si>
-    <t>MISUMI</t>
-  </si>
-  <si>
-    <t>http://us.misumi-ec.com/vona2/detail/110302368740/</t>
-  </si>
-  <si>
-    <t>ZBedSupportExtrusion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z Bed Support </t>
-  </si>
-  <si>
-    <t>264 long</t>
-  </si>
-  <si>
-    <t>ZBedPlate</t>
-  </si>
-  <si>
-    <t>Bed Support Plate</t>
-  </si>
-  <si>
-    <t>BedClipUltiBot</t>
-  </si>
-  <si>
-    <t>Bed Clip Ultibots</t>
-  </si>
-  <si>
-    <t>BedClipUltiBotMirrored</t>
-  </si>
-  <si>
-    <t>Bed Clip Ultibots Mirrored</t>
-  </si>
-  <si>
-    <t>M3Nut</t>
-  </si>
-  <si>
-    <t>M3 Nut</t>
-  </si>
-  <si>
-    <t>KNTR3</t>
-  </si>
-  <si>
-    <t>http://us.misumi-ec.com/vona2/detail/110300250540/</t>
-  </si>
-  <si>
-    <t>ZBedSupportLateral</t>
-  </si>
-  <si>
-    <t>Z Bed Support Lateral</t>
-  </si>
-  <si>
-    <t>110 Long</t>
-  </si>
-  <si>
-    <t>ZBedSupportPlate</t>
-  </si>
-  <si>
-    <t>Z Bed Support</t>
-  </si>
-  <si>
     <t>ZAxisNutMountMetal</t>
   </si>
   <si>
@@ -544,22 +541,19 @@
     <t>Bed Clip Ultibots Center</t>
   </si>
   <si>
-    <t>MTSRR10</t>
-  </si>
-  <si>
-    <t>PARTsolutions</t>
-  </si>
-  <si>
-    <t>Nuts for 30 Degree Trapezoidal Screw Threads - High Load Flanged Resin Type - Round Flanged Type</t>
-  </si>
-  <si>
-    <t>http://us.misumi-ec.com/vona2/detail/110300081660</t>
+    <t>ZACMENut</t>
+  </si>
+  <si>
+    <t>Z Axis Leadscrew Nut</t>
+  </si>
+  <si>
+    <t>MakersToolWorks</t>
   </si>
   <si>
     <t xml:space="preserve">ASSEMBLY PARTS TOTAL = </t>
   </si>
   <si>
-    <t>File created: 2/2/2015 20:55:19</t>
+    <t>File created: 19/3/2015 8:36:06</t>
   </si>
 </sst>
 </file>
@@ -998,7 +992,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
@@ -1012,15 +1006,13 @@
     <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="91" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,16 +1046,13 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C2" s="3">
         <v>4</v>
@@ -1076,29 +1065,26 @@
         <v>23.96</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1111,25 +1097,24 @@
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -1142,25 +1127,24 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -1173,27 +1157,24 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
@@ -1206,31 +1187,28 @@
         <v>6.0598000000000001</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C7" s="3">
         <v>2</v>
@@ -1243,31 +1221,28 @@
         <v>6.0598000000000001</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
@@ -1280,27 +1255,24 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>27</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -1313,25 +1285,24 @@
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -1344,25 +1315,24 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3">
         <v>10</v>
@@ -1375,31 +1345,28 @@
         <v>5.6989999999999998</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -1412,31 +1379,28 @@
         <v>3.0299</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="C13" s="3">
         <v>2</v>
@@ -1449,25 +1413,26 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="K13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -1480,25 +1445,26 @@
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="K14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -1511,31 +1477,28 @@
         <v>7.9785999999999992</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C16" s="3">
         <v>6</v>
@@ -1548,25 +1511,24 @@
         <v>2.52</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C17" s="3">
         <v>8</v>
@@ -1579,27 +1541,24 @@
         <v>3.36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="3">
         <v>6</v>
@@ -1612,29 +1571,28 @@
         <v>2.52</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
       <c r="J18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L18" s="2" t="s">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
@@ -1647,27 +1605,24 @@
         <v>1.68</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
@@ -1680,31 +1635,28 @@
         <v>0.64</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="C21" s="3">
         <v>1</v>
@@ -1717,68 +1669,60 @@
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L21" s="2"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="C22" s="3">
         <v>1</v>
       </c>
       <c r="D22" s="4">
-        <v>22.42</v>
+        <v>0</v>
       </c>
       <c r="E22" s="4">
         <f>SUM(C22*D22)</f>
-        <v>22.42</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>74</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E23" s="6">
         <f>SUM(E2:E22)</f>
-        <v>85.927099999999996</v>
+        <v>63.507100000000001</v>
       </c>
       <c r="F23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
